--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T09:46:28+00:00</t>
+    <t>2025-08-01T06:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:40:58+00:00</t>
+    <t>2025-08-21T09:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T09:52:50+00:00</t>
+    <t>2025-11-14T15:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -641,7 +641,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -741,7 +741,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1105,7 +1105,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -1299,7 +1299,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1370,7 +1370,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2822,7 +2822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>165</v>
       </c>
@@ -8357,12 +8357,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO56">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T15:31:38+00:00</t>
+    <t>2025-12-03T08:52:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:52:56+00:00</t>
+    <t>2025-12-19T08:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>eyecolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor|0.1.0}
 </t>
   </si>
   <si>
@@ -865,7 +865,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender|0.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1737,7 +1737,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1752,7 +1752,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.30859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:24:59+00:00</t>
+    <t>2025-12-23T15:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
